--- a/表格/等级.xlsx
+++ b/表格/等级.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3CAD144-DF24-474C-AECA-02978C0731A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
     <sheet name="_Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +95,22 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,11 +159,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +245,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +297,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -452,7 +505,7 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,15 +547,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -511,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -528,7 +581,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -545,7 +598,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -562,7 +615,7 @@
         <v>10000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -579,7 +632,7 @@
         <v>10000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -597,7 +650,7 @@
         <v>10000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -616,7 +669,7 @@
         <v>10000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -635,7 +688,7 @@
         <v>10000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -654,7 +707,7 @@
         <v>10000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -673,7 +726,7 @@
         <v>10000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -692,7 +745,7 @@
         <v>10000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -711,7 +764,7 @@
         <v>10000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -730,7 +783,7 @@
         <v>10000000010</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -749,7 +802,7 @@
         <v>10000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -768,7 +821,7 @@
         <v>10000000012</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -787,7 +840,7 @@
         <v>10000000013</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -806,7 +859,7 @@
         <v>10000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -825,7 +878,7 @@
         <v>10000000015</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -844,7 +897,7 @@
         <v>10000000016</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -863,7 +916,7 @@
         <v>10000000017</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -882,7 +935,7 @@
         <v>10000000018</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -901,7 +954,7 @@
         <v>10000000019</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -920,7 +973,7 @@
         <v>10000000020</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -939,7 +992,7 @@
         <v>10000000021</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -958,7 +1011,7 @@
         <v>10000000022</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -977,7 +1030,7 @@
         <v>10000000023</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -996,7 +1049,7 @@
         <v>10000000024</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1015,7 +1068,7 @@
         <v>10000000025</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1034,7 +1087,7 @@
         <v>10000000026</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1053,7 +1106,7 @@
         <v>10000000027</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1072,7 +1125,7 @@
         <v>10000000028</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1099,12 +1152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表格/等级.xlsx
+++ b/表格/等级.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3CAD144-DF24-474C-AECA-02978C0731A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D606CE8-F35C-4428-97FE-B6A2E4DBB213}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B9">
         <f>B5+10</f>
@@ -652,7 +652,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B35" si="0">B6+10</f>
@@ -671,7 +671,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -918,7 +918,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -937,7 +937,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>

--- a/表格/等级.xlsx
+++ b/表格/等级.xlsx
@@ -3,20 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D606CE8-F35C-4428-97FE-B6A2E4DBB213}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{091C6D36-5BB1-4607-907E-1A31BA34BEA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
-    <sheet name="_Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="level_TW" sheetId="3" r:id="rId2"/>
+    <sheet name="_Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{8434E49F-D8AD-40CB-A775-D0B395E415D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CHT
+ABC</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +130,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿嘿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +160,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,11 +533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +609,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -583,7 +626,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -600,7 +643,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -617,7 +660,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -634,7 +677,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <f>B5+10</f>
@@ -652,7 +695,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B35" si="0">B6+10</f>
@@ -671,7 +714,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -690,7 +733,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -709,7 +752,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -728,7 +771,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -747,7 +790,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -766,7 +809,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -785,7 +828,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -804,7 +847,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -823,7 +866,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -842,7 +885,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -861,7 +904,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -880,7 +923,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -899,7 +942,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -918,7 +961,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -937,7 +980,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -956,7 +999,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -975,7 +1018,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -994,7 +1037,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1013,7 +1056,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1032,7 +1075,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1051,7 +1094,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1070,7 +1113,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1089,7 +1132,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1108,7 +1151,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1127,7 +1170,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -1148,10 +1191,303 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4359BB-EF53-474F-A206-F050E849380A}">
+  <dimension ref="A2:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/表格/等级.xlsx
+++ b/表格/等级.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{091C6D36-5BB1-4607-907E-1A31BA34BEA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA269D12-BCD6-4BF9-9F84-E492DF4661C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
-    <sheet name="level_TW" sheetId="3" r:id="rId2"/>
+    <sheet name="level_CHT" sheetId="3" r:id="rId2"/>
     <sheet name="_Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4359BB-EF53-474F-A206-F050E849380A}">
   <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/表格/等级.xlsx
+++ b/表格/等级.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA269D12-BCD6-4BF9-9F84-E492DF4661C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865ADE6-0455-4CB3-84AC-87521E881DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
     <sheet name="level_CHT" sheetId="3" r:id="rId2"/>
     <sheet name="_Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,18 @@
   </si>
   <si>
     <t>嘿嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +556,7 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -556,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,8 +580,11 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -589,16 +600,19 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -606,8 +620,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -623,8 +640,11 @@
       <c r="E5">
         <v>9999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -640,8 +660,11 @@
       <c r="E6">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -657,8 +680,11 @@
       <c r="E7">
         <v>10000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -674,8 +700,11 @@
       <c r="E8">
         <v>10000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -692,8 +721,11 @@
       <c r="E9">
         <v>10000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -711,8 +743,11 @@
       <c r="E10">
         <v>10000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -730,8 +765,11 @@
       <c r="E11">
         <v>10000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -749,8 +787,11 @@
       <c r="E12">
         <v>10000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -768,8 +809,11 @@
       <c r="E13">
         <v>10000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>341412412412412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -788,7 +832,7 @@
         <v>10000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -807,7 +851,7 @@
         <v>10000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -826,7 +870,7 @@
         <v>10000000010</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -844,8 +888,11 @@
       <c r="E17">
         <v>10000000011</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -864,7 +911,7 @@
         <v>10000000012</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -883,7 +930,7 @@
         <v>10000000013</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -902,7 +949,7 @@
         <v>10000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -921,7 +968,7 @@
         <v>10000000015</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -940,7 +987,7 @@
         <v>10000000016</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -958,8 +1005,11 @@
       <c r="E23">
         <v>10000000017</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>12311413123123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>10000000018</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -997,7 +1047,7 @@
         <v>10000000019</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1016,7 +1066,7 @@
         <v>10000000020</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1035,7 +1085,7 @@
         <v>10000000021</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>10000000022</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1073,7 +1123,7 @@
         <v>10000000023</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1092,7 +1142,7 @@
         <v>10000000024</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1111,7 +1161,7 @@
         <v>10000000025</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1199,13 +1249,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4359BB-EF53-474F-A206-F050E849380A}">
   <dimension ref="A2:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1237,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1245,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1253,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1261,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1269,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1277,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1285,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1293,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1301,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1309,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1317,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1325,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1333,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1341,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1349,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1357,7 +1408,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -1365,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -1373,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1381,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -1389,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -1397,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -1405,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -1413,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -1421,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -1429,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -1437,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -1445,7 +1496,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -1453,7 +1504,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1461,7 +1512,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -1469,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -1477,7 +1528,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
